--- a/biology/Zoologie/Hoki/Hoki.xlsx
+++ b/biology/Zoologie/Hoki/Hoki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macruronus novaezelandiae
 Le hoki, grenadier bleu ou merlu à longue queue (Macruronus novaezelandiae) est une espèce de poissons de forme allongée qui vit dans les eaux du sud du Pacifique par des profondeurs allant de 200 à 1 000 mètres. Sa longueur varie de 60 à 120 cm. Les différentes espèces de hoki, toutes originaires du Pacifique Sud, sont pêchées au large des côtes chiliennes, de Nouvelle-Zélande ou d'Australie.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hoki est en apparence similaire aux Macrouridae avec de grands yeux et un corps plat et très allongé finissant en une queue pointue correspondant à la deuxième nageoire dorsale se confondant avec la nageoire anale. Ce poisson carnivore est doté d'une grande gueule et de dents pointues utilisées pour attraper et manger les poissons lanterne, mais également les crustacés ou les calmars.
-Le hoki a une durée de vie de 25 ans et atteint sa maturité à 4 ou 5 ans[1]. Il pèse environ 1,5 kg pour une longueur de 65 à 70 cm[2].
+Le hoki a une durée de vie de 25 ans et atteint sa maturité à 4 ou 5 ans. Il pèse environ 1,5 kg pour une longueur de 65 à 70 cm.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Pêche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est pêché 300 000 tonnes de hoki chaque année[3]. Les stocks sont abondants et la pêche devrait encore progresser[3]. Il est toutefois inscrit sur la liste rouge de Greenpeace car sa pêche attaque également d'autres espèces comme les requins pèlerins, les otaries à fourrure et les albatros à sourcils noirs[1].
-Il est pêché par chalutage de fond ou chalutage en eaux mi-profondes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est pêché 300 000 tonnes de hoki chaque année. Les stocks sont abondants et la pêche devrait encore progresser. Il est toutefois inscrit sur la liste rouge de Greenpeace car sa pêche attaque également d'autres espèces comme les requins pèlerins, les otaries à fourrure et les albatros à sourcils noirs.
+Il est pêché par chalutage de fond ou chalutage en eaux mi-profondes.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le hoki, pêché en haute mer, est préparé et surgelé directement sur les bateaux. À faible prix, il est principalement commercialisé surgelé dans la grande distribution et dans les restaurations collectives. Il est également proposé en poissons panés ou en bâtonnets et entre, par exemple, dans la composition du Filet-O-Fish de McDonald's[4] et également dans la composition du King Fish de Quick.
-Le hoki est principalement vendu aux États-Unis, au Canada et en Union européenne[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le hoki, pêché en haute mer, est préparé et surgelé directement sur les bateaux. À faible prix, il est principalement commercialisé surgelé dans la grande distribution et dans les restaurations collectives. Il est également proposé en poissons panés ou en bâtonnets et entre, par exemple, dans la composition du Filet-O-Fish de McDonald's et également dans la composition du King Fish de Quick.
+Le hoki est principalement vendu aux États-Unis, au Canada et en Union européenne.
 90 % de la pêche mondiale est réservée à l'AFPA[Quoi ?] en restauration collective[réf. souhaitée].
 </t>
         </is>
@@ -609,7 +627,9 @@
           <t>Cuisine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hoki a une chair blanche, qui peut parfois prendre une teinte rosée disparaissant à la cuisson. Poisson à peu d'arêtes, il n'a pas un goût très prononcé.
 Le hoki sert dans la fabrication de sushis.
